--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C186B9-6CB1-4103-BB4E-90F70E840BAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCE4CA5-1A7E-47D6-BBAA-7423F3833967}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>Ref</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Change drop image sizes</t>
   </si>
   <si>
-    <t>Mob from start to finish - load, BaseImage, Sound etc</t>
-  </si>
-  <si>
     <t>Chart Chrons monster image files</t>
   </si>
   <si>
@@ -307,47 +304,45 @@
     <t>Shoctopus, SandGolem, desert skull pile, lost ship mob, lost ship mob, HwanMaTrooper, rabid hyena thingy, sand mage, sand warrior, red phantom thing, mutated ghoul (potential sub boss?), basilisc, Shoctopus, sand cactus, butterfly mage, lost ship mob, EvilEmporer, sand blademan, ForestHunter (ranged), ForestHunter (melee), Elephant, FlameGriffin, StoneGriffin, MutantCaptain, EvilPriestess, EvilPriestess, JinchonDevil, human archer, ice wraith, black phantom</t>
   </si>
   <si>
-    <t>Binary file example</t>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/csharp/csharp_binary_files.htm</t>
+    <t>Add drop file search to server application ie tool to search through drop files for a specific item, return list of files/mobs?</t>
+  </si>
+  <si>
+    <t>Sort level exps</t>
+  </si>
+  <si>
+    <t>Add orc mob sounds</t>
+  </si>
+  <si>
+    <t>https://www.lomcn.org/forum/showthread.php?91273-Mob-Sounds/page2&amp;highlight=add+sounds+to+mobs</t>
+  </si>
+  <si>
+    <t>Add 'last logged in' functionality - if it's been over x amount of hours/days since character last logged in, add rested exp buff/increased chance of setting off kill chain</t>
+  </si>
+  <si>
+    <t>TAOS - Can build up 'exp buff' over time as an ability? To apply to a target player, but player only gains buff when in proximity to tao. Can be disabled server-side</t>
   </si>
   <si>
     <t>Fix HellKeeper AI -
 a. currently does an attack animation per player in range
 b. does a rage hit per player in area when pulling players in
 c. only seems to apply para effect to target player when pulling players in as opposed to attempting to para all players in range
-d. change of it pulling all players in needs reducing maybe</t>
-  </si>
-  <si>
-    <t>Add drop file search to server application ie tool to search through drop files for a specific item, return list of files/mobs?</t>
-  </si>
-  <si>
-    <t>Sort level exps</t>
-  </si>
-  <si>
-    <t>Add orc mob sounds</t>
-  </si>
-  <si>
-    <t>https://www.lomcn.org/forum/showthread.php?91273-Mob-Sounds/page2&amp;highlight=add+sounds+to+mobs</t>
-  </si>
-  <si>
-    <t>Add 'last logged in' functionality - if it's been over x amount of hours/days since character last logged in, add rested exp buff/increased chance of setting off kill chain</t>
-  </si>
-  <si>
-    <t>TAOS - Can build up 'exp buff' over time as an ability? To apply to a target player, but player only gains buff when in proximity to tao. Can be disabled server-side</t>
-  </si>
-  <si>
-    <t>KILL CHAIN FUNCTIONALITY:
-f. Need to add a label/text in gamescene to display mob type/progress/time remaining etc. ***How do quests display their info in gamescene?
-Add group kill chain functionality?</t>
+d. chance of it pulling all players in needs reducing maybe</t>
+  </si>
+  <si>
+    <t>Add delay/time interval between sending group/trade/guild request to same person to prevent it being used to spam people</t>
+  </si>
+  <si>
+    <t>Add ability to reset a password in server app</t>
+  </si>
+  <si>
+    <t>Add auto-pot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,14 +354,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,11 +376,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -401,15 +387,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -716,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,37 +798,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{5816BA6D-FDF4-4BB4-9D9C-1887B98417A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -855,7 +815,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,8 +836,8 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>96</v>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,57 +861,57 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -976,306 +936,306 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
